--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3217671.605833854</v>
+        <v>3213413.343607381</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554861</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8404147.911481241</v>
+        <v>8404147.911481239</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>199.0301658957675</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>404.9830436192661</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.9581905386852</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123240995863</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011773</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261739</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323584</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199275</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156099</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>48.6097701606839</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.5157864133602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>320.780578342536</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616886</v>
+        <v>12.92889148616882</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386852</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123240995863</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011773</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>55.01245280947681</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261739</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323584</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199275</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156099</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>136.7536491353585</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063167</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>228.1210829964108</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>356.5924795642191</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>194.0713264068991</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>54.46740106394503</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.2224443473098</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>158.2465685970621</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>159.9796912851476</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>55.02344404120691</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>128.1870493703709</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.0992099793461</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085810924</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>214.4033048062065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>104.6857048437763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>67.43549003635358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>165.1436917124523</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>124.8808320771207</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.29785174158917</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.7323644553055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.192054315722</v>
+        <v>1701.913626345611</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.22953737531</v>
+        <v>1332.951109405199</v>
       </c>
       <c r="D2" t="n">
-        <v>797.9638387685595</v>
+        <v>974.6854107984484</v>
       </c>
       <c r="E2" t="n">
-        <v>596.9232671566732</v>
+        <v>588.8971582002041</v>
       </c>
       <c r="F2" t="n">
-        <v>589.9777664074697</v>
+        <v>581.9516574510006</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760173985</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760173985</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002774</v>
       </c>
       <c r="K2" t="n">
-        <v>321.4042764948841</v>
+        <v>153.9986274745392</v>
       </c>
       <c r="L2" t="n">
-        <v>872.3447282234645</v>
+        <v>704.9390792031254</v>
       </c>
       <c r="M2" t="n">
-        <v>1227.023259395749</v>
+        <v>1334.573032084409</v>
       </c>
       <c r="N2" t="n">
-        <v>1419.239895182999</v>
+        <v>1629.431735936285</v>
       </c>
       <c r="O2" t="n">
-        <v>1964.401531937495</v>
+        <v>2174.593372690788</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.20183399299</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2479.413416894737</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T2" t="n">
-        <v>2264.560549649957</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="U2" t="n">
-        <v>2264.560549649957</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="V2" t="n">
-        <v>2264.560549649957</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="W2" t="n">
-        <v>1911.791894379843</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="X2" t="n">
-        <v>1911.791894379843</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1911.791894379843</v>
+        <v>2088.513466409732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815741</v>
+        <v>98.84600463815696</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352079</v>
+        <v>170.7774263352098</v>
       </c>
       <c r="K3" t="n">
-        <v>237.3598989302719</v>
+        <v>499.1804835727299</v>
       </c>
       <c r="L3" t="n">
-        <v>740.3427331273829</v>
+        <v>1002.163317769845</v>
       </c>
       <c r="M3" t="n">
-        <v>1379.279198108101</v>
+        <v>1180.051769638069</v>
       </c>
       <c r="N3" t="n">
-        <v>1576.28447288941</v>
+        <v>1435.320983085754</v>
       </c>
       <c r="O3" t="n">
-        <v>2124.209712095084</v>
+        <v>1983.246222291432</v>
       </c>
       <c r="P3" t="n">
-        <v>2546.964954822618</v>
+        <v>2406.00146501897</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.390233267649</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4448,13 +4448,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>673.6630312952967</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="C4" t="n">
-        <v>673.6630312952967</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="D4" t="n">
-        <v>523.546391882961</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="E4" t="n">
-        <v>375.6332983005678</v>
+        <v>368.2203116100034</v>
       </c>
       <c r="F4" t="n">
-        <v>375.6332983005678</v>
+        <v>221.330364112093</v>
       </c>
       <c r="G4" t="n">
-        <v>207.021021782959</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919753</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482373</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628226</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543862</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917215</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.7791293271</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.75168442186</v>
+        <v>998.6509064817906</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.75168442186</v>
+        <v>770.6613555837732</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.3114961255365</v>
+        <v>549.8687764402431</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>782.5321134961794</v>
+        <v>920.1110786634297</v>
       </c>
       <c r="C5" t="n">
-        <v>782.5321134961794</v>
+        <v>551.148561723018</v>
       </c>
       <c r="D5" t="n">
-        <v>458.5113272915975</v>
+        <v>192.8828631162675</v>
       </c>
       <c r="E5" t="n">
-        <v>72.7230746933532</v>
+        <v>192.8828631162675</v>
       </c>
       <c r="F5" t="n">
-        <v>65.77757394414972</v>
+        <v>185.937362367064</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944842</v>
+        <v>172.8778760173985</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>172.8778760173985</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903808</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745311</v>
+        <v>321.4042764948922</v>
       </c>
       <c r="L5" t="n">
-        <v>609.4342495045117</v>
+        <v>458.8601258185326</v>
       </c>
       <c r="M5" t="n">
-        <v>794.0498042278847</v>
+        <v>794.0498042278587</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895182999</v>
+        <v>1419.23989518298</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937495</v>
+        <v>1964.401531937483</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239692</v>
+        <v>2392.009993239685</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2423.084664234557</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2423.084664234557</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.737043797193</v>
+        <v>2423.084664234557</v>
       </c>
       <c r="W5" t="n">
-        <v>1932.737043797193</v>
+        <v>2070.316008964443</v>
       </c>
       <c r="X5" t="n">
-        <v>1559.271285536113</v>
+        <v>1696.850250703363</v>
       </c>
       <c r="Y5" t="n">
-        <v>1169.131953560301</v>
+        <v>1306.710918727551</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120972</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309702</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.044442269719</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642635</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911485</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640329</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815671</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352079</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727247</v>
+        <v>381.1211448320042</v>
       </c>
       <c r="L6" t="n">
-        <v>989.3029394077029</v>
+        <v>884.1039790291197</v>
       </c>
       <c r="M6" t="n">
-        <v>1628.239404388421</v>
+        <v>1523.040444009843</v>
       </c>
       <c r="N6" t="n">
-        <v>1825.24467916973</v>
+        <v>1720.045718791157</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2267.970957996836</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877461</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.390233267649</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162596</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930853</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.5442180203015</v>
+        <v>503.9147235293232</v>
       </c>
       <c r="C7" t="n">
-        <v>199.6080350923946</v>
+        <v>503.9147235293232</v>
       </c>
       <c r="D7" t="n">
-        <v>199.6080350923946</v>
+        <v>365.7797244026984</v>
       </c>
       <c r="E7" t="n">
-        <v>199.6080350923946</v>
+        <v>217.8666308203053</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239493</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239493</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239493</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239493</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919753</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482373</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628226</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543862</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917215</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.7791293271</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421875</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.75168442186</v>
+        <v>758.59921173521</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.75168442186</v>
+        <v>503.9147235293232</v>
       </c>
       <c r="W7" t="n">
-        <v>817.326348061849</v>
+        <v>503.9147235293232</v>
       </c>
       <c r="X7" t="n">
-        <v>589.3367971638316</v>
+        <v>503.9147235293232</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.5442180203015</v>
+        <v>503.9147235293232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1351.195110245805</v>
+        <v>801.8679068095093</v>
       </c>
       <c r="C8" t="n">
-        <v>982.2325933053937</v>
+        <v>432.9053898690976</v>
       </c>
       <c r="D8" t="n">
-        <v>982.2325933053937</v>
+        <v>432.9053898690976</v>
       </c>
       <c r="E8" t="n">
-        <v>596.4443407071494</v>
+        <v>72.71096606685612</v>
       </c>
       <c r="F8" t="n">
-        <v>589.498839957946</v>
+        <v>65.76546531765264</v>
       </c>
       <c r="G8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J8" t="n">
-        <v>73.9523375878675</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4194506079129</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.232708854112</v>
+        <v>1033.218542125545</v>
       </c>
       <c r="M8" t="n">
-        <v>1661.950519837424</v>
+        <v>1219.917954950952</v>
       </c>
       <c r="N8" t="n">
-        <v>2001.436188046361</v>
+        <v>1414.252167842935</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363321</v>
+        <v>1961.413372610012</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702615</v>
+        <v>2390.728418949307</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221038</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.88948048875</v>
+        <v>2635.904379724208</v>
       </c>
       <c r="V8" t="n">
-        <v>1933.826593145179</v>
+        <v>2304.841492380637</v>
       </c>
       <c r="W8" t="n">
-        <v>1933.826593145179</v>
+        <v>1952.072837110523</v>
       </c>
       <c r="X8" t="n">
-        <v>1933.826593145179</v>
+        <v>1578.607078849443</v>
       </c>
       <c r="Y8" t="n">
-        <v>1737.794950309927</v>
+        <v>1188.467746873631</v>
       </c>
     </row>
     <row r="9">
@@ -4868,37 +4868,37 @@
         <v>642.7523330787117</v>
       </c>
       <c r="E9" t="n">
-        <v>483.5148780732562</v>
+        <v>483.5148780732561</v>
       </c>
       <c r="F9" t="n">
-        <v>336.9803201001412</v>
+        <v>336.9803201001411</v>
       </c>
       <c r="G9" t="n">
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416766</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>171.3773394513798</v>
       </c>
       <c r="K9" t="n">
         <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>638.0353417728836</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1278.580691239988</v>
+        <v>1184.664619977913</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.224052695024</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.660061447747</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
         <v>2404.349688975046</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.8523038390877</v>
+        <v>519.6840035171199</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8347270068199</v>
+        <v>350.747820589213</v>
       </c>
       <c r="D10" t="n">
-        <v>52.7180875944842</v>
+        <v>200.6311811768773</v>
       </c>
       <c r="E10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448415</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4986,28 +4986,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1748077732316</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1748077732316</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>922.1748077732316</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>922.1748077732316</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>667.4903195673447</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>667.4903195673447</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>439.5007686693274</v>
+        <v>922.1250474908898</v>
       </c>
       <c r="Y10" t="n">
-        <v>439.5007686693274</v>
+        <v>701.3324683473596</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,25 +5053,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,7 +5114,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
         <v>95.58405025273903</v>
@@ -5126,22 +5126,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.790206091931</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.37303605497</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="14">
@@ -5260,25 +5260,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5363,16 +5363,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
         <v>484.8112968429802</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>3809.631423131744</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>3869.022106831312</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>4420.931837070599</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2324.338143427403</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2104.736678450344</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111687</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611076047</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332407</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014795</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355949</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068018</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6101,7 +6101,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V24" t="n">
         <v>1781.463605996603</v>
@@ -6110,7 +6110,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.614450297915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400608</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578606</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000586</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X25" t="n">
-        <v>3677.571434467152</v>
+        <v>916.2946447138306</v>
       </c>
       <c r="Y25" t="n">
-        <v>3456.778855323622</v>
+        <v>695.5020655703005</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2897.617548589219</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>2728.681365661313</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>3528.048143461006</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>3300.058592562989</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>3079.266013419459</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2884.660124662805</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3482.038612289356</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2213.105570022105</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1993.504105045046</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1704.428878389244</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468472</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>888.6771326738537</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>738.560493261518</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>590.6473996791249</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>443.7574521812145</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.968683817746</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>171.7807842918299</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>103.6788566309284</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7999,7 +7999,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>58.8524632993643</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.68992429782625</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>321.19168960237</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>152.0950744302489</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026544516</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>357.8500641295876</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>240.9393132390146</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>251.5805925818441</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>146.6176316332877</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>271.7036563660314</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.995648173964582e-11</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9.000252501565768</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>92.15795203868043</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>126.0028419604377</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>39.05977172825692</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.73277020259124</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405186</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.11969353038452</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.1491633157412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>15.88259428919233</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>40.64330621514816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.5341284403481</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.85228889678928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772205.3308196084</v>
+        <v>772205.3308196072</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>772205.3308196084</v>
+        <v>772205.3308196072</v>
       </c>
     </row>
     <row r="4">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138666</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711742.7704138664</v>
+        <v>711742.7704138665</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711742.7704138665</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287548</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222505</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.741448465883</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329926</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.783371310554988e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663868</v>
+        <v>128024.1174663869</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408942</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408943</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660025</v>
+        <v>183932.5854660026</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531694951</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695588</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538459</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538459</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917777</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342436.8451572737</v>
+        <v>-342436.8451572813</v>
       </c>
       <c r="C6" t="n">
-        <v>447409.0879649676</v>
+        <v>447409.0879649689</v>
       </c>
       <c r="D6" t="n">
-        <v>445294.0961575931</v>
+        <v>445294.0961576017</v>
       </c>
       <c r="E6" t="n">
-        <v>-176781.0078598392</v>
+        <v>-177128.3871141968</v>
       </c>
       <c r="F6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851187961</v>
       </c>
       <c r="G6" t="n">
-        <v>598843.2643731536</v>
+        <v>598495.8851187963</v>
       </c>
       <c r="H6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851187965</v>
       </c>
       <c r="I6" t="n">
-        <v>598843.2643731531</v>
+        <v>598495.8851188</v>
       </c>
       <c r="J6" t="n">
-        <v>426426.1229910132</v>
+        <v>426078.7437366562</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.2643731534</v>
+        <v>598495.885118796</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.2643731533</v>
+        <v>598495.8851187961</v>
       </c>
       <c r="M6" t="n">
-        <v>470819.1469067664</v>
+        <v>470471.7676524093</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731529</v>
+        <v>598495.8851187965</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731529</v>
+        <v>598495.8851187961</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731536</v>
+        <v>598495.8851187961</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053502</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053502</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26758,7 +26758,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310519</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310519</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310519</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.977372281894208e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053502</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632714883</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-5.911715561524034e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310519</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685963</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310518</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685963</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310519</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>182.9002041764943</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.945847866902739</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>315.1636514716167</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723317</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7599048465898</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842206</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063167</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371259</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>205.459591793773</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>237.9132281759071</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.06886693873463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.90246327814691</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>315.1636514716167</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>157.6918857628548</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>11.86182388285388</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465898</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842206</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371259</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.459591793773</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>58.40191534018024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25.33789050804268</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.1666122491545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.7794200346828</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.37384602896623</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415041</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903172068</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009727</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071133</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160887</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337169</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635172</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129842</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728804</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605271</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170501</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506802</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179968</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172984</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366225</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387907</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817924</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401222</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976592</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623902</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394158</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351657</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492088</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789768</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190992</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916065039</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822789</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.11947329744544</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830431</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026041</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849719</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303769</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.2831703460411</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546618</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177262</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.916253860973</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203306</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.50825929539</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324586</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550788</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004362</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319928</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565811</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232959</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.37384602896623</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064415041</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903172068</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009727</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071133</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160887</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337169</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.5712815635172</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129842</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728804</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605271</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170501</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506802</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172984</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.270119599366225</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387907</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.72999497817924</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401222</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976592</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623902</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394158</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351657</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.1937627492088</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789768</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190992</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916065039</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822789</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.11947329744544</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.08356049995830431</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026041</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849719</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303769</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.2831703460411</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546618</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177262</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.916253860973</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203306</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.50825929539</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324586</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550788</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.87843134004362</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319928</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565811</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232959</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>309.7666854143573</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>351.5042614518786</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428646</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212782</v>
+        <v>81.87226576213277</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>556.5055067965518</v>
       </c>
       <c r="M2" t="n">
-        <v>358.2611425982672</v>
+        <v>635.9938917992766</v>
       </c>
       <c r="N2" t="n">
-        <v>194.1582179669193</v>
+        <v>297.8370745978546</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540363</v>
+        <v>550.6683199540429</v>
       </c>
       <c r="P2" t="n">
-        <v>431.9277386890878</v>
+        <v>431.9277386890935</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548607767</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.2518573138624</v>
+        <v>119.2518573138643</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329688</v>
+        <v>331.7202598358788</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859752</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>179.6853049173975</v>
       </c>
       <c r="N3" t="n">
-        <v>198.995227051827</v>
+        <v>257.8476903511967</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.4598375814938</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045797</v>
+        <v>427.0254977045837</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.83780293090126</v>
+        <v>232.2251663689268</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.443883128779</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780423</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228136</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995592</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094296</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973521</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903813495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463602</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>81.87226576213277</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0359818484653</v>
+        <v>138.8442922461014</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064373</v>
+        <v>338.575432736693</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789105</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540363</v>
+        <v>550.6683199540429</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890878</v>
+        <v>431.9277386890935</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459781</v>
+        <v>246.3579661459823</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138624</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>331.7202598358788</v>
       </c>
       <c r="L6" t="n">
-        <v>495.0731877120991</v>
+        <v>508.0634688859752</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673921</v>
+        <v>645.3903686673974</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051827</v>
+        <v>198.9952270518324</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5975183047594</v>
+        <v>553.4598375814938</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>349.5020423036611</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>22.14787863307768</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.443883128779</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780423</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228136</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.0795307995592</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094296</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973521</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903813495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>392.31660858311</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>342.9148163726638</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>472.3670317727634</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>337.5104291586726</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>320.8355783388566</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036804</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L24" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>171.2123056344831</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>208.9080170074342</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
